--- a/Excel/ServerInfoConfig.xlsx
+++ b/Excel/ServerInfoConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>破阵子</t>
+  </si>
+  <si>
+    <t>凌雪阁</t>
+  </si>
+  <si>
+    <t>暗影岛</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1083,8 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1084,8 +1093,8 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1094,8 +1103,8 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
